--- a/datasets/draft chart.xlsx
+++ b/datasets/draft chart.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="471">
   <si>
     <t>Total Contributions</t>
   </si>
@@ -1456,9 +1456,6 @@
     <t>Test here:</t>
   </si>
   <si>
-    <t>votes</t>
-  </si>
-  <si>
     <t>(enter</t>
   </si>
   <si>
@@ -1472,13 +1469,22 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>slope(m)</t>
+  </si>
+  <si>
+    <t>number of points (k)</t>
+  </si>
+  <si>
+    <t>votes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,6 +1553,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1568,7 +1582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1752,11 +1766,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1848,6 +1924,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4810,11 +4897,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78839808"/>
-        <c:axId val="78841728"/>
+        <c:axId val="90112000"/>
+        <c:axId val="90113920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78839808"/>
+        <c:axId val="90112000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4840,12 +4927,12 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78841728"/>
+        <c:crossAx val="90113920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78841728"/>
+        <c:axId val="90113920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4872,7 +4959,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78839808"/>
+        <c:crossAx val="90112000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4885,7 +4972,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6608,23 +6695,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80681984"/>
-        <c:axId val="80696064"/>
+        <c:axId val="90483712"/>
+        <c:axId val="91558656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80681984"/>
+        <c:axId val="90483712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80696064"/>
+        <c:crossAx val="91558656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80696064"/>
+        <c:axId val="91558656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6632,7 +6719,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80681984"/>
+        <c:crossAx val="90483712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6645,7 +6732,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6701,7 +6788,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2010'!$B$2:$B$207</c:f>
+              <c:f>'2010'!$B$3:$B$208</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="206"/>
@@ -7328,7 +7415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2010'!$C$2:$C$207</c:f>
+              <c:f>'2010'!$C$3:$C$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="206"/>
@@ -7954,23 +8041,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80737408"/>
-        <c:axId val="80738944"/>
+        <c:axId val="91595904"/>
+        <c:axId val="91597440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80737408"/>
+        <c:axId val="91595904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80738944"/>
+        <c:crossAx val="91597440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80738944"/>
+        <c:axId val="91597440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,7 +8065,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80737408"/>
+        <c:crossAx val="91595904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7991,7 +8078,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8385,8 +8472,8 @@
   <dimension ref="A1:E489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C488" sqref="C488"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18104,8 +18191,8 @@
   <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18638,13 +18725,13 @@
         <v>462</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J20" s="40">
         <v>5000</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -18653,7 +18740,7 @@
         <v>1308.0893958115755</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -18679,7 +18766,7 @@
         <v>3096.0341129792473</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -18712,7 +18799,7 @@
         <v>1645.3364532414057</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -18722,7 +18809,7 @@
       <c r="N22" s="17"/>
       <c r="O22" s="46"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="18.75">
       <c r="A23" s="17" t="s">
         <v>230</v>
       </c>
@@ -18745,13 +18832,15 @@
         <v>772.77660624041619</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="49">
+        <v>2006</v>
+      </c>
       <c r="N23" s="17"/>
       <c r="O23" s="46"/>
     </row>
@@ -24644,19 +24733,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P207"/>
+  <dimension ref="A1:P209"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C207"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:16" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>442</v>
       </c>
@@ -24667,2282 +24757,4062 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
+      <c r="B2" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="K2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>29993.32</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5505</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="D3" s="31">
+        <f>B3*C3</f>
+        <v>165113226.59999999</v>
+      </c>
+      <c r="E3" s="32">
+        <f>B3^2</f>
+        <v>899599244.62239993</v>
+      </c>
+      <c r="F3" s="15">
+        <f>$M$7*B3+$M$11</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K3" s="2">
+        <f>(K2*(D209)-(B209*C209))/(K2*E209-B209^2)</f>
+        <v>0.12820194303355495</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>27062</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4996</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D4" s="31">
+        <f t="shared" ref="D4:D67" si="0">B4*C4</f>
+        <v>135201752</v>
+      </c>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4:E67" si="1">B4^2</f>
+        <v>732351844</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>32415</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1573</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>50988795</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" si="1"/>
+        <v>1050732225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>12175</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>883</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>10750525</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" si="1"/>
+        <v>148230625</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="M6" s="2">
+        <f>(C209-K3*B209)/K2</f>
+        <v>703.51578164843534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D8" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>48085</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>12660</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D9" s="31">
+        <f t="shared" si="0"/>
+        <v>608756100</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" si="1"/>
+        <v>2312167225</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="L9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>2346</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D10" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>754.65</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>828</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="D11" s="31">
+        <f t="shared" si="0"/>
+        <v>624850.19999999995</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="1"/>
+        <v>569496.62249999994</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>13186.039999999999</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>736</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="D12" s="31">
+        <f t="shared" si="0"/>
+        <v>9704925.4399999995</v>
+      </c>
+      <c r="E12" s="32">
+        <f t="shared" si="1"/>
+        <v>173871650.88159996</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K12" s="40">
+        <v>5000</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="45">
+        <f>K3*K12+M6</f>
+        <v>1344.5254968162101</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>3361.98</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>637</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="D13" s="31">
+        <f t="shared" si="0"/>
+        <v>2141581.2600000002</v>
+      </c>
+      <c r="E13" s="32">
+        <f t="shared" si="1"/>
+        <v>11302909.520400001</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>3850</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>455</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="D14" s="31">
+        <f t="shared" si="0"/>
+        <v>1751750</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" si="1"/>
+        <v>14822500</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>13521</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="D15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="49">
+        <v>2010</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>2684</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>8300</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1585</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="D17" s="31">
+        <f t="shared" si="0"/>
+        <v>13155500</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="1"/>
+        <v>68890000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1010</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="D18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>42600</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>9789</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="D19" s="31">
+        <f t="shared" si="0"/>
+        <v>417011400</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="1"/>
+        <v>1814760000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>8167.68</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>9480</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="D20" s="31">
+        <f t="shared" si="0"/>
+        <v>77429606.400000006</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="1"/>
+        <v>66710996.582400002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1602</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="D21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>64125</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>9778</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="D22" s="31">
+        <f t="shared" si="0"/>
+        <v>627014250</v>
+      </c>
+      <c r="E22" s="32">
+        <f t="shared" si="1"/>
+        <v>4112015625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>50075</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>9669</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="D23" s="31">
+        <f t="shared" si="0"/>
+        <v>484175175</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="1"/>
+        <v>2507505625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>16950</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2725</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="D24" s="31">
+        <f t="shared" si="0"/>
+        <v>46188750</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="1"/>
+        <v>287302500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>16751.690000000002</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1245</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="D25" s="31">
+        <f t="shared" si="0"/>
+        <v>20855854.050000004</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="1"/>
+        <v>280619117.85610008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>339</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="D26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <v>63625</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>12228</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="D27" s="31">
+        <f t="shared" si="0"/>
+        <v>778006500</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="1"/>
+        <v>4048140625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>23005</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>5847</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="D28" s="31">
+        <f t="shared" si="0"/>
+        <v>134510235</v>
+      </c>
+      <c r="E28" s="32">
+        <f t="shared" si="1"/>
+        <v>529230025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>3362</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>717</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="D29" s="31">
+        <f t="shared" si="0"/>
+        <v>2410554</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="1"/>
+        <v>11303044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>605</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="D30" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>466</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="D31" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>375</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="D32" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <v>85960</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>5338</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="D33" s="31">
+        <f t="shared" si="0"/>
+        <v>458854480</v>
+      </c>
+      <c r="E33" s="32">
+        <f t="shared" si="1"/>
+        <v>7389121600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2">
         <v>25150</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>3601</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="D34" s="31">
+        <f t="shared" si="0"/>
+        <v>90565150</v>
+      </c>
+      <c r="E34" s="32">
+        <f t="shared" si="1"/>
+        <v>632522500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>1038</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="D35" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>706</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="D36" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2">
         <v>2440</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>547</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="D37" s="31">
+        <f t="shared" si="0"/>
+        <v>1334680</v>
+      </c>
+      <c r="E37" s="32">
+        <f t="shared" si="1"/>
+        <v>5953600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>491</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="D38" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="2">
         <v>750</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="D39" s="31">
+        <f t="shared" si="0"/>
+        <v>186750</v>
+      </c>
+      <c r="E39" s="32">
+        <f t="shared" si="1"/>
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="D40" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="D41" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2">
         <v>37585</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>4724</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="D42" s="31">
+        <f t="shared" si="0"/>
+        <v>177551540</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" si="1"/>
+        <v>1412632225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2">
         <v>56500</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>4372</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="D43" s="31">
+        <f t="shared" si="0"/>
+        <v>247018000</v>
+      </c>
+      <c r="E43" s="32">
+        <f t="shared" si="1"/>
+        <v>3192250000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2">
         <v>2450</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>1487</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="D44" s="31">
+        <f t="shared" si="0"/>
+        <v>3643150</v>
+      </c>
+      <c r="E44" s="32">
+        <f t="shared" si="1"/>
+        <v>6002500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="D45" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2">
         <v>4855</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="D46" s="31">
+        <f t="shared" si="0"/>
+        <v>1179765</v>
+      </c>
+      <c r="E46" s="32">
+        <f t="shared" si="1"/>
+        <v>23571025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>500</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="D47" s="31">
+        <f t="shared" si="0"/>
+        <v>64500</v>
+      </c>
+      <c r="E47" s="32">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2">
         <v>750</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="D48" s="31">
+        <f t="shared" si="0"/>
+        <v>87750</v>
+      </c>
+      <c r="E48" s="32">
+        <f t="shared" si="1"/>
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="2">
-        <v>0</v>
-      </c>
-      <c r="C48">
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="D49" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="2">
         <v>60480</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>5452</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="D50" s="31">
+        <f t="shared" si="0"/>
+        <v>329736960</v>
+      </c>
+      <c r="E50" s="32">
+        <f t="shared" si="1"/>
+        <v>3657830400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2">
         <v>78390</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>5363</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="D51" s="31">
+        <f t="shared" si="0"/>
+        <v>420405570</v>
+      </c>
+      <c r="E51" s="32">
+        <f t="shared" si="1"/>
+        <v>6144992100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>26360.26</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>1082</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="D52" s="31">
+        <f t="shared" si="0"/>
+        <v>28521801.319999997</v>
+      </c>
+      <c r="E52" s="32">
+        <f t="shared" si="1"/>
+        <v>694863307.26759994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>259</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D53" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53">
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D54" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55" s="2">
         <v>46520</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>3159</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="D55" s="31">
+        <f t="shared" si="0"/>
+        <v>146956680</v>
+      </c>
+      <c r="E55" s="32">
+        <f t="shared" si="1"/>
+        <v>2164110400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2">
         <v>30190</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>2777</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="D56" s="31">
+        <f t="shared" si="0"/>
+        <v>83837630</v>
+      </c>
+      <c r="E56" s="32">
+        <f t="shared" si="1"/>
+        <v>911436100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2">
         <v>38814.400000000001</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>2632</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="D57" s="31">
+        <f t="shared" si="0"/>
+        <v>102159500.8</v>
+      </c>
+      <c r="E57" s="32">
+        <f t="shared" si="1"/>
+        <v>1506557647.3600001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>20170</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>2605</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D58" s="31">
+        <f t="shared" si="0"/>
+        <v>52542850</v>
+      </c>
+      <c r="E58" s="32">
+        <f t="shared" si="1"/>
+        <v>406828900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>40043.160000000003</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>1887</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="D59" s="31">
+        <f t="shared" si="0"/>
+        <v>75561442.920000002</v>
+      </c>
+      <c r="E59" s="32">
+        <f t="shared" si="1"/>
+        <v>1603454662.7856002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>36286</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>935</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="D60" s="31">
+        <f t="shared" si="0"/>
+        <v>33927410</v>
+      </c>
+      <c r="E60" s="32">
+        <f t="shared" si="1"/>
+        <v>1316673796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>4512.63</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>850</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="D61" s="31">
+        <f t="shared" si="0"/>
+        <v>3835735.5</v>
+      </c>
+      <c r="E61" s="32">
+        <f t="shared" si="1"/>
+        <v>20363829.516899999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
-      <c r="C61">
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62">
         <v>535</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="D62" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="2">
         <v>3660</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>355</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="D63" s="31">
+        <f t="shared" si="0"/>
+        <v>1299300</v>
+      </c>
+      <c r="E63" s="32">
+        <f t="shared" si="1"/>
+        <v>13395600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="2">
-        <v>0</v>
-      </c>
-      <c r="C63">
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>326</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D64" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>244</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D65" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="2">
-        <v>0</v>
-      </c>
-      <c r="C65">
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D66" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>36144.1</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>10544</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D67" s="31">
+        <f t="shared" si="0"/>
+        <v>381103390.39999998</v>
+      </c>
+      <c r="E67" s="32">
+        <f t="shared" si="1"/>
+        <v>1306395964.8099999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>6850</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>2290</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="D68" s="31">
+        <f t="shared" ref="D68:D131" si="2">B68*C68</f>
+        <v>15686500</v>
+      </c>
+      <c r="E68" s="32">
+        <f t="shared" ref="E68:E131" si="3">B68^2</f>
+        <v>46922500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>3425</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>1718</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="D69" s="31">
+        <f t="shared" si="2"/>
+        <v>5884150</v>
+      </c>
+      <c r="E69" s="32">
+        <f t="shared" si="3"/>
+        <v>11730625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>15084.550000000001</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>1235</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="D70" s="31">
+        <f t="shared" si="2"/>
+        <v>18629419.25</v>
+      </c>
+      <c r="E70" s="32">
+        <f t="shared" si="3"/>
+        <v>227543648.70250005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>24825</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>3636</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="D71" s="31">
+        <f t="shared" si="2"/>
+        <v>90263700</v>
+      </c>
+      <c r="E71" s="32">
+        <f t="shared" si="3"/>
+        <v>616280625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>35500</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>3214</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="D72" s="31">
+        <f t="shared" si="2"/>
+        <v>114097000</v>
+      </c>
+      <c r="E72" s="32">
+        <f t="shared" si="3"/>
+        <v>1260250000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B73" s="2">
         <v>16350</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>2748</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="D73" s="31">
+        <f t="shared" si="2"/>
+        <v>44929800</v>
+      </c>
+      <c r="E73" s="32">
+        <f t="shared" si="3"/>
+        <v>267322500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="2">
         <v>19760</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>2204</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="D74" s="31">
+        <f t="shared" si="2"/>
+        <v>43551040</v>
+      </c>
+      <c r="E74" s="32">
+        <f t="shared" si="3"/>
+        <v>390457600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>12550</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>1073</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="D75" s="31">
+        <f t="shared" si="2"/>
+        <v>13466150</v>
+      </c>
+      <c r="E75" s="32">
+        <f t="shared" si="3"/>
+        <v>157502500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B76" s="2">
         <v>781</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>343</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="D76" s="31">
+        <f t="shared" si="2"/>
+        <v>267883</v>
+      </c>
+      <c r="E76" s="32">
+        <f t="shared" si="3"/>
+        <v>609961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>4500</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>221</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="D77" s="31">
+        <f t="shared" si="2"/>
+        <v>994500</v>
+      </c>
+      <c r="E77" s="32">
+        <f t="shared" si="3"/>
+        <v>20250000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="2">
         <v>21175</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>10100</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="D78" s="31">
+        <f t="shared" si="2"/>
+        <v>213867500</v>
+      </c>
+      <c r="E78" s="32">
+        <f t="shared" si="3"/>
+        <v>448380625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>42300</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>7893</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="D79" s="31">
+        <f t="shared" si="2"/>
+        <v>333873900</v>
+      </c>
+      <c r="E79" s="32">
+        <f t="shared" si="3"/>
+        <v>1789290000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>43043.1</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>2109</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="D80" s="31">
+        <f t="shared" si="2"/>
+        <v>90777897.899999991</v>
+      </c>
+      <c r="E80" s="32">
+        <f t="shared" si="3"/>
+        <v>1852708457.6099999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>6250</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>1139</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="D81" s="31">
+        <f t="shared" si="2"/>
+        <v>7118750</v>
+      </c>
+      <c r="E81" s="32">
+        <f t="shared" si="3"/>
+        <v>39062500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="2">
         <v>759.81</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>228</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="D82" s="31">
+        <f t="shared" si="2"/>
+        <v>173236.68</v>
+      </c>
+      <c r="E82" s="32">
+        <f t="shared" si="3"/>
+        <v>577311.23609999986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="2">
         <v>27317.43</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>8542</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="D83" s="31">
+        <f t="shared" si="2"/>
+        <v>233345487.06</v>
+      </c>
+      <c r="E83" s="32">
+        <f t="shared" si="3"/>
+        <v>746241981.80490005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B84" s="2">
         <v>10634.5</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>2798</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="D84" s="31">
+        <f t="shared" si="2"/>
+        <v>29755331</v>
+      </c>
+      <c r="E84" s="32">
+        <f t="shared" si="3"/>
+        <v>113092590.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B85" s="2">
         <v>12110</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>2434</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="D85" s="31">
+        <f t="shared" si="2"/>
+        <v>29475740</v>
+      </c>
+      <c r="E85" s="32">
+        <f t="shared" si="3"/>
+        <v>146652100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B86" s="2">
         <v>9740.7799999999988</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>668</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="D86" s="31">
+        <f t="shared" si="2"/>
+        <v>6506841.0399999991</v>
+      </c>
+      <c r="E86" s="32">
+        <f t="shared" si="3"/>
+        <v>94882795.008399978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="2">
-        <v>0</v>
-      </c>
-      <c r="C86">
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>531</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="D87" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B88" s="2">
         <v>256.63</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>529</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="D88" s="31">
+        <f t="shared" si="2"/>
+        <v>135757.26999999999</v>
+      </c>
+      <c r="E88" s="32">
+        <f t="shared" si="3"/>
+        <v>65858.956900000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-      <c r="C88">
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89">
         <v>342</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="D89" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B90" s="2">
         <v>6200</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>331</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="D90" s="31">
+        <f t="shared" si="2"/>
+        <v>2052200</v>
+      </c>
+      <c r="E90" s="32">
+        <f t="shared" si="3"/>
+        <v>38440000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B91" s="2">
         <v>1187.55</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="D91" s="31">
+        <f t="shared" si="2"/>
+        <v>210196.35</v>
+      </c>
+      <c r="E91" s="32">
+        <f t="shared" si="3"/>
+        <v>1410275.0024999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-      <c r="C91">
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="D92" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B93" s="2">
         <v>37049</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>6668</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="D93" s="31">
+        <f t="shared" si="2"/>
+        <v>247042732</v>
+      </c>
+      <c r="E93" s="32">
+        <f t="shared" si="3"/>
+        <v>1372628401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B94" s="2">
         <v>31563</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>5399</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="D94" s="31">
+        <f t="shared" si="2"/>
+        <v>170408637</v>
+      </c>
+      <c r="E94" s="32">
+        <f t="shared" si="3"/>
+        <v>996222969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B95" s="2">
         <v>11850</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>2275</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="D95" s="31">
+        <f t="shared" si="2"/>
+        <v>26958750</v>
+      </c>
+      <c r="E95" s="32">
+        <f t="shared" si="3"/>
+        <v>140422500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B96" s="2">
         <v>31690</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>1173</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="D96" s="31">
+        <f t="shared" si="2"/>
+        <v>37172370</v>
+      </c>
+      <c r="E96" s="32">
+        <f t="shared" si="3"/>
+        <v>1004256100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B97" s="2">
         <v>6160</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>472</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="D97" s="31">
+        <f t="shared" si="2"/>
+        <v>2907520</v>
+      </c>
+      <c r="E97" s="32">
+        <f t="shared" si="3"/>
+        <v>37945600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-      <c r="C97">
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98">
         <v>464</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="D98" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-      <c r="C98">
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>64</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="D99" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B100" s="2">
         <v>49051</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>11607</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="D100" s="31">
+        <f t="shared" si="2"/>
+        <v>569334957</v>
+      </c>
+      <c r="E100" s="32">
+        <f t="shared" si="3"/>
+        <v>2406000601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B101" s="2">
         <v>13881.5</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>4243</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="D101" s="31">
+        <f t="shared" si="2"/>
+        <v>58899204.5</v>
+      </c>
+      <c r="E101" s="32">
+        <f t="shared" si="3"/>
+        <v>192696042.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B102" s="2">
         <v>3655</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>1799</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="D102" s="31">
+        <f t="shared" si="2"/>
+        <v>6575345</v>
+      </c>
+      <c r="E102" s="32">
+        <f t="shared" si="3"/>
+        <v>13359025</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B103" s="2">
         <v>6100</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>1453</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="D103" s="31">
+        <f t="shared" si="2"/>
+        <v>8863300</v>
+      </c>
+      <c r="E103" s="32">
+        <f t="shared" si="3"/>
+        <v>37210000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B104" s="2">
         <v>31635</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>6154</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="D104" s="31">
+        <f t="shared" si="2"/>
+        <v>194681790</v>
+      </c>
+      <c r="E104" s="32">
+        <f t="shared" si="3"/>
+        <v>1000773225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B105" s="2">
         <v>39373.1</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>4827</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="D105" s="31">
+        <f t="shared" si="2"/>
+        <v>190053953.69999999</v>
+      </c>
+      <c r="E105" s="32">
+        <f t="shared" si="3"/>
+        <v>1550241003.6099999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B106" s="2">
         <v>28848.63</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>2035</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="D106" s="31">
+        <f t="shared" si="2"/>
+        <v>58706962.050000004</v>
+      </c>
+      <c r="E106" s="32">
+        <f t="shared" si="3"/>
+        <v>832243452.87690008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-      <c r="C106">
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107">
         <v>751</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="D107" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C107">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108">
         <v>388</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="D108" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-      <c r="C108">
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109">
         <v>125</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="D109" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B110" s="2">
         <v>300</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>94</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="D110" s="31">
+        <f t="shared" si="2"/>
+        <v>28200</v>
+      </c>
+      <c r="E110" s="32">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B111" s="2">
         <v>59075</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>6277</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="D111" s="31">
+        <f t="shared" si="2"/>
+        <v>370813775</v>
+      </c>
+      <c r="E111" s="32">
+        <f t="shared" si="3"/>
+        <v>3489855625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B112" s="2">
         <v>26500</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>4911</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="D112" s="31">
+        <f t="shared" si="2"/>
+        <v>130141500</v>
+      </c>
+      <c r="E112" s="32">
+        <f t="shared" si="3"/>
+        <v>702250000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B113" s="2">
         <v>9205</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>869</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+      <c r="D113" s="31">
+        <f t="shared" si="2"/>
+        <v>7999145</v>
+      </c>
+      <c r="E113" s="32">
+        <f t="shared" si="3"/>
+        <v>84732025</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B114" s="2">
         <v>12255</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>776</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="D114" s="31">
+        <f t="shared" si="2"/>
+        <v>9509880</v>
+      </c>
+      <c r="E114" s="32">
+        <f t="shared" si="3"/>
+        <v>150185025</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B115" s="2">
         <v>24955</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>669</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="D115" s="31">
+        <f t="shared" si="2"/>
+        <v>16694895</v>
+      </c>
+      <c r="E115" s="32">
+        <f t="shared" si="3"/>
+        <v>622752025</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B116" s="2">
         <v>20494.37</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>326</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="D116" s="31">
+        <f t="shared" si="2"/>
+        <v>6681164.6200000001</v>
+      </c>
+      <c r="E116" s="32">
+        <f t="shared" si="3"/>
+        <v>420019201.69689995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B117" s="2">
         <v>3420</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>154</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="D117" s="31">
+        <f t="shared" si="2"/>
+        <v>526680</v>
+      </c>
+      <c r="E117" s="32">
+        <f t="shared" si="3"/>
+        <v>11696400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B118" s="2">
         <v>650</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="D118" s="31">
+        <f t="shared" si="2"/>
+        <v>68900</v>
+      </c>
+      <c r="E118" s="32">
+        <f t="shared" si="3"/>
+        <v>422500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
-      <c r="C118">
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+      <c r="D119" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>569.34</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>70</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="D120" s="31">
+        <f t="shared" si="2"/>
+        <v>39853.800000000003</v>
+      </c>
+      <c r="E120" s="32">
+        <f t="shared" si="3"/>
+        <v>324148.03560000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="2">
-        <v>0</v>
-      </c>
-      <c r="C120">
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C121">
         <v>52</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="D121" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
         <v>130</v>
       </c>
-      <c r="B121" s="2">
-        <v>0</v>
-      </c>
-      <c r="C121">
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+      <c r="C122">
         <v>42</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="D122" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B123" s="2">
         <v>28569</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>9125</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="D123" s="31">
+        <f t="shared" si="2"/>
+        <v>260692125</v>
+      </c>
+      <c r="E123" s="32">
+        <f t="shared" si="3"/>
+        <v>816187761</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B124" s="2">
         <v>36085.879999999997</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>4207</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
+      <c r="D124" s="31">
+        <f t="shared" si="2"/>
+        <v>151813297.16</v>
+      </c>
+      <c r="E124" s="32">
+        <f t="shared" si="3"/>
+        <v>1302190735.3743999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="2">
-        <v>0</v>
-      </c>
-      <c r="C124">
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>3650</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
+      <c r="D125" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B126" s="2">
         <v>18282.919999999998</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>1313</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="D126" s="31">
+        <f t="shared" si="2"/>
+        <v>24005473.959999997</v>
+      </c>
+      <c r="E126" s="32">
+        <f t="shared" si="3"/>
+        <v>334265163.72639996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="2">
-        <v>0</v>
-      </c>
-      <c r="C126">
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+      <c r="C127">
         <v>518</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="D127" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B128" s="2">
         <v>4824.2</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>417</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="D128" s="31">
+        <f t="shared" si="2"/>
+        <v>2011691.4</v>
+      </c>
+      <c r="E128" s="32">
+        <f t="shared" si="3"/>
+        <v>23272905.639999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="2">
-        <v>0</v>
-      </c>
-      <c r="C128">
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+      <c r="C129">
         <v>398</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="D129" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B130" s="2">
         <v>4150</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>356</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="D130" s="31">
+        <f t="shared" si="2"/>
+        <v>1477400</v>
+      </c>
+      <c r="E130" s="32">
+        <f t="shared" si="3"/>
+        <v>17222500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="2">
-        <v>0</v>
-      </c>
-      <c r="C130">
+      <c r="B131" s="2">
+        <v>0</v>
+      </c>
+      <c r="C131">
         <v>121</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="D131" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
         <v>140</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B132" s="2">
         <v>80094.76999999999</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>16486</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="D132" s="31">
+        <f t="shared" ref="D132:D195" si="4">B132*C132</f>
+        <v>1320442378.2199998</v>
+      </c>
+      <c r="E132" s="32">
+        <f t="shared" ref="E132:E195" si="5">B132^2</f>
+        <v>6415172181.3528986</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B133" s="2">
         <v>18000</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>3601</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="D133" s="31">
+        <f t="shared" si="4"/>
+        <v>64818000</v>
+      </c>
+      <c r="E133" s="32">
+        <f t="shared" si="5"/>
+        <v>324000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B134" s="2">
         <v>4390</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <v>1233</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="D134" s="31">
+        <f t="shared" si="4"/>
+        <v>5412870</v>
+      </c>
+      <c r="E134" s="32">
+        <f t="shared" si="5"/>
+        <v>19272100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
         <v>143</v>
       </c>
-      <c r="B134" s="2">
-        <v>0</v>
-      </c>
-      <c r="C134">
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+      <c r="C135">
         <v>487</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="D135" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
         <v>144</v>
       </c>
-      <c r="B135" s="2">
-        <v>0</v>
-      </c>
-      <c r="C135">
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+      <c r="C136">
         <v>315</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
+      <c r="D136" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B137" s="2">
         <v>40003.949999999997</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <v>9824</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="D137" s="31">
+        <f t="shared" si="4"/>
+        <v>392998804.79999995</v>
+      </c>
+      <c r="E137" s="32">
+        <f t="shared" si="5"/>
+        <v>1600316015.6024997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B138" s="2">
         <v>34308.270000000004</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>5328</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
+      <c r="D138" s="31">
+        <f t="shared" si="4"/>
+        <v>182794462.56000003</v>
+      </c>
+      <c r="E138" s="32">
+        <f t="shared" si="5"/>
+        <v>1177057390.3929002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B139" s="2">
         <v>2962.5</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <v>921</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="D139" s="31">
+        <f t="shared" si="4"/>
+        <v>2728462.5</v>
+      </c>
+      <c r="E139" s="32">
+        <f t="shared" si="5"/>
+        <v>8776406.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="2">
-        <v>0</v>
-      </c>
-      <c r="C139">
+      <c r="B140" s="2">
+        <v>0</v>
+      </c>
+      <c r="C140">
         <v>644</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
+      <c r="D140" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B141" s="2">
         <v>485</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>454</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
+      <c r="D141" s="31">
+        <f t="shared" si="4"/>
+        <v>220190</v>
+      </c>
+      <c r="E141" s="32">
+        <f t="shared" si="5"/>
+        <v>235225</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B142" s="2">
         <v>1800</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <v>295</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
+      <c r="D142" s="31">
+        <f t="shared" si="4"/>
+        <v>531000</v>
+      </c>
+      <c r="E142" s="32">
+        <f t="shared" si="5"/>
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B143" s="2">
         <v>35462</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>11892</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="D143" s="31">
+        <f t="shared" si="4"/>
+        <v>421714104</v>
+      </c>
+      <c r="E143" s="32">
+        <f t="shared" si="5"/>
+        <v>1257553444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B144" s="2">
         <v>40151</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <v>8037</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
+      <c r="D144" s="31">
+        <f t="shared" si="4"/>
+        <v>322693587</v>
+      </c>
+      <c r="E144" s="32">
+        <f t="shared" si="5"/>
+        <v>1612102801</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="2">
-        <v>0</v>
-      </c>
-      <c r="C144">
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+      <c r="C145">
         <v>1900</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
+      <c r="D145" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B146" s="2">
         <v>3310.34</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>869</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
+      <c r="D146" s="31">
+        <f t="shared" si="4"/>
+        <v>2876685.46</v>
+      </c>
+      <c r="E146" s="32">
+        <f t="shared" si="5"/>
+        <v>10958350.915600002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B147" s="2">
         <v>36930</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <v>13666</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+      <c r="D147" s="31">
+        <f t="shared" si="4"/>
+        <v>504685380</v>
+      </c>
+      <c r="E147" s="32">
+        <f t="shared" si="5"/>
+        <v>1363824900</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B148" s="2">
         <v>6850</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>2456</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="D148" s="31">
+        <f t="shared" si="4"/>
+        <v>16823600</v>
+      </c>
+      <c r="E148" s="32">
+        <f t="shared" si="5"/>
+        <v>46922500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="2">
-        <v>0</v>
-      </c>
-      <c r="C148">
+      <c r="B149" s="2">
+        <v>0</v>
+      </c>
+      <c r="C149">
         <v>2129</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="D149" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B150" s="2">
         <v>2100</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>1445</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
+      <c r="D150" s="31">
+        <f t="shared" si="4"/>
+        <v>3034500</v>
+      </c>
+      <c r="E150" s="32">
+        <f t="shared" si="5"/>
+        <v>4410000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="2">
-        <v>0</v>
-      </c>
-      <c r="C150">
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>1055</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
+      <c r="D151" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B152" s="2">
         <v>32819</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>10523</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
+      <c r="D152" s="31">
+        <f t="shared" si="4"/>
+        <v>345354337</v>
+      </c>
+      <c r="E152" s="32">
+        <f t="shared" si="5"/>
+        <v>1077086761</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B153" s="2">
         <v>78200</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>4986</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
+      <c r="D153" s="31">
+        <f t="shared" si="4"/>
+        <v>389905200</v>
+      </c>
+      <c r="E153" s="32">
+        <f t="shared" si="5"/>
+        <v>6115240000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B154" s="2">
         <v>8624.5299999999988</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <v>1611</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
+      <c r="D154" s="31">
+        <f t="shared" si="4"/>
+        <v>13894117.829999998</v>
+      </c>
+      <c r="E154" s="32">
+        <f t="shared" si="5"/>
+        <v>74382517.720899984</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B155" s="2">
         <v>16725</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>903</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="D155" s="31">
+        <f t="shared" si="4"/>
+        <v>15102675</v>
+      </c>
+      <c r="E155" s="32">
+        <f t="shared" si="5"/>
+        <v>279725625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B156" s="2">
         <v>32341.57</v>
       </c>
-      <c r="C155">
+      <c r="C156">
         <v>9258</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
+      <c r="D156" s="31">
+        <f t="shared" si="4"/>
+        <v>299418255.06</v>
+      </c>
+      <c r="E156" s="32">
+        <f t="shared" si="5"/>
+        <v>1045977150.0649</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B157" s="2">
         <v>54905</v>
       </c>
-      <c r="C156">
+      <c r="C157">
         <v>8756</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="D157" s="31">
+        <f t="shared" si="4"/>
+        <v>480748180</v>
+      </c>
+      <c r="E157" s="32">
+        <f t="shared" si="5"/>
+        <v>3014559025</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B158" s="2">
         <v>2750</v>
       </c>
-      <c r="C157">
+      <c r="C158">
         <v>1968</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="D158" s="31">
+        <f t="shared" si="4"/>
+        <v>5412000</v>
+      </c>
+      <c r="E158" s="32">
+        <f t="shared" si="5"/>
+        <v>7562500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B159" s="2">
         <v>375</v>
       </c>
-      <c r="C158">
+      <c r="C159">
         <v>368</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="D159" s="31">
+        <f t="shared" si="4"/>
+        <v>138000</v>
+      </c>
+      <c r="E159" s="32">
+        <f t="shared" si="5"/>
+        <v>140625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B160" s="2">
         <v>34800</v>
       </c>
-      <c r="C159">
+      <c r="C160">
         <v>6203</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>169</v>
-      </c>
-      <c r="B160" s="2">
-        <v>57940</v>
-      </c>
-      <c r="C160">
-        <v>5788</v>
+      <c r="D160" s="31">
+        <f t="shared" si="4"/>
+        <v>215864400</v>
+      </c>
+      <c r="E160" s="32">
+        <f t="shared" si="5"/>
+        <v>1211040000</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2">
-        <v>45340</v>
+        <v>57940</v>
       </c>
       <c r="C161">
-        <v>5627</v>
+        <v>5788</v>
+      </c>
+      <c r="D161" s="31">
+        <f t="shared" si="4"/>
+        <v>335356720</v>
+      </c>
+      <c r="E161" s="32">
+        <f t="shared" si="5"/>
+        <v>3357043600</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2">
-        <v>31175</v>
+        <v>45340</v>
       </c>
       <c r="C162">
-        <v>1452</v>
+        <v>5627</v>
+      </c>
+      <c r="D162" s="31">
+        <f t="shared" si="4"/>
+        <v>255128180</v>
+      </c>
+      <c r="E162" s="32">
+        <f t="shared" si="5"/>
+        <v>2055715600</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" s="2">
-        <v>8128.6399999999994</v>
+        <v>31175</v>
       </c>
       <c r="C163">
-        <v>377</v>
+        <v>1452</v>
+      </c>
+      <c r="D163" s="31">
+        <f t="shared" si="4"/>
+        <v>45266100</v>
+      </c>
+      <c r="E163" s="32">
+        <f t="shared" si="5"/>
+        <v>971880625</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2">
-        <v>7955</v>
+        <v>8128.6399999999994</v>
       </c>
       <c r="C164">
-        <v>216</v>
+        <v>377</v>
+      </c>
+      <c r="D164" s="31">
+        <f t="shared" si="4"/>
+        <v>3064497.28</v>
+      </c>
+      <c r="E164" s="32">
+        <f t="shared" si="5"/>
+        <v>66074788.249599993</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" s="2">
-        <v>0</v>
+        <v>7955</v>
       </c>
       <c r="C165">
-        <v>169</v>
+        <v>216</v>
+      </c>
+      <c r="D165" s="31">
+        <f t="shared" si="4"/>
+        <v>1718280</v>
+      </c>
+      <c r="E165" s="32">
+        <f t="shared" si="5"/>
+        <v>63282025</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" s="2">
-        <v>43276.009999999995</v>
+        <v>0</v>
       </c>
       <c r="C166">
-        <v>7527</v>
+        <v>169</v>
+      </c>
+      <c r="D166" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167" s="2">
-        <v>59040</v>
+        <v>43276.009999999995</v>
       </c>
       <c r="C167">
-        <v>7065</v>
+        <v>7527</v>
+      </c>
+      <c r="D167" s="31">
+        <f t="shared" si="4"/>
+        <v>325738527.26999998</v>
+      </c>
+      <c r="E167" s="32">
+        <f t="shared" si="5"/>
+        <v>1872813041.5200996</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2">
-        <v>38285</v>
+        <v>59040</v>
       </c>
       <c r="C168">
-        <v>3447</v>
+        <v>7065</v>
+      </c>
+      <c r="D168" s="31">
+        <f t="shared" si="4"/>
+        <v>417117600</v>
+      </c>
+      <c r="E168" s="32">
+        <f t="shared" si="5"/>
+        <v>3485721600</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" s="2">
-        <v>25700</v>
+        <v>38285</v>
       </c>
       <c r="C169">
-        <v>2128</v>
+        <v>3447</v>
+      </c>
+      <c r="D169" s="31">
+        <f t="shared" si="4"/>
+        <v>131968395</v>
+      </c>
+      <c r="E169" s="32">
+        <f t="shared" si="5"/>
+        <v>1465741225</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B170" s="2">
-        <v>31242.69</v>
+        <v>25700</v>
       </c>
       <c r="C170">
-        <v>1667</v>
+        <v>2128</v>
+      </c>
+      <c r="D170" s="31">
+        <f t="shared" si="4"/>
+        <v>54689600</v>
+      </c>
+      <c r="E170" s="32">
+        <f t="shared" si="5"/>
+        <v>660490000</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B171" s="2">
-        <v>25625</v>
+        <v>31242.69</v>
       </c>
       <c r="C171">
-        <v>1223</v>
+        <v>1667</v>
+      </c>
+      <c r="D171" s="31">
+        <f t="shared" si="4"/>
+        <v>52081564.229999997</v>
+      </c>
+      <c r="E171" s="32">
+        <f t="shared" si="5"/>
+        <v>976105678.43609989</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172" s="2">
-        <v>0</v>
+        <v>25625</v>
       </c>
       <c r="C172">
-        <v>1127</v>
-      </c>
-      <c r="P172" t="s">
-        <v>440</v>
+        <v>1223</v>
+      </c>
+      <c r="D172" s="31">
+        <f t="shared" si="4"/>
+        <v>31339375</v>
+      </c>
+      <c r="E172" s="32">
+        <f t="shared" si="5"/>
+        <v>656640625</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B173" s="2">
-        <v>16850</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>838</v>
-      </c>
-      <c r="P173" s="2">
-        <v>3450945.71</v>
+        <v>1127</v>
+      </c>
+      <c r="D173" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P173" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B174" s="2">
-        <v>4650</v>
+        <v>16850</v>
       </c>
       <c r="C174">
-        <v>380</v>
+        <v>838</v>
+      </c>
+      <c r="D174" s="31">
+        <f t="shared" si="4"/>
+        <v>14120300</v>
+      </c>
+      <c r="E174" s="32">
+        <f t="shared" si="5"/>
+        <v>283922500</v>
+      </c>
+      <c r="P174" s="2">
+        <v>3450945.71</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B175" s="2">
-        <v>2280</v>
+        <v>4650</v>
       </c>
       <c r="C175">
-        <v>367</v>
+        <v>380</v>
+      </c>
+      <c r="D175" s="31">
+        <f t="shared" si="4"/>
+        <v>1767000</v>
+      </c>
+      <c r="E175" s="32">
+        <f t="shared" si="5"/>
+        <v>21622500</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B176" s="2">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="C176">
-        <v>283</v>
+        <v>367</v>
+      </c>
+      <c r="D176" s="31">
+        <f t="shared" si="4"/>
+        <v>836760</v>
+      </c>
+      <c r="E176" s="32">
+        <f t="shared" si="5"/>
+        <v>5198400</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177" s="2">
         <v>0</v>
       </c>
       <c r="C177">
-        <v>243</v>
+        <v>283</v>
+      </c>
+      <c r="D177" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E177" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B178" s="2">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>142</v>
+        <v>243</v>
+      </c>
+      <c r="D178" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E178" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B179" s="2">
-        <v>600</v>
+        <v>3200</v>
       </c>
       <c r="C179">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="D179" s="31">
+        <f t="shared" si="4"/>
+        <v>454400</v>
+      </c>
+      <c r="E179" s="32">
+        <f t="shared" si="5"/>
+        <v>10240000</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B180" s="2">
-        <v>1850</v>
+        <v>600</v>
       </c>
       <c r="C180">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="D180" s="31">
+        <f t="shared" si="4"/>
+        <v>64800</v>
+      </c>
+      <c r="E180" s="32">
+        <f t="shared" si="5"/>
+        <v>360000</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B181" s="2">
-        <v>38198.5</v>
+        <v>1850</v>
       </c>
       <c r="C181">
-        <v>11883</v>
+        <v>74</v>
+      </c>
+      <c r="D181" s="31">
+        <f t="shared" si="4"/>
+        <v>136900</v>
+      </c>
+      <c r="E181" s="32">
+        <f t="shared" si="5"/>
+        <v>3422500</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" s="2">
-        <v>13200</v>
+        <v>38198.5</v>
       </c>
       <c r="C182">
-        <v>3730</v>
+        <v>11883</v>
+      </c>
+      <c r="D182" s="31">
+        <f t="shared" si="4"/>
+        <v>453912775.5</v>
+      </c>
+      <c r="E182" s="32">
+        <f t="shared" si="5"/>
+        <v>1459125402.25</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B183" s="2">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="C183">
-        <v>1128</v>
+        <v>3730</v>
+      </c>
+      <c r="D183" s="31">
+        <f t="shared" si="4"/>
+        <v>49236000</v>
+      </c>
+      <c r="E183" s="32">
+        <f t="shared" si="5"/>
+        <v>174240000</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B184" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>969</v>
+        <v>1128</v>
+      </c>
+      <c r="D184" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B185" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C185">
-        <v>633</v>
+        <v>969</v>
+      </c>
+      <c r="D185" s="31">
+        <f t="shared" si="4"/>
+        <v>193800</v>
+      </c>
+      <c r="E185" s="32">
+        <f t="shared" si="5"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B186" s="2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>562</v>
+        <v>633</v>
+      </c>
+      <c r="D186" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E186" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B187" s="2">
-        <v>30010</v>
+        <v>600</v>
       </c>
       <c r="C187">
-        <v>7430</v>
+        <v>562</v>
+      </c>
+      <c r="D187" s="31">
+        <f t="shared" si="4"/>
+        <v>337200</v>
+      </c>
+      <c r="E187" s="32">
+        <f t="shared" si="5"/>
+        <v>360000</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B188" s="2">
-        <v>39170</v>
+        <v>30010</v>
       </c>
       <c r="C188">
-        <v>4966</v>
-      </c>
-      <c r="P188" t="s">
-        <v>440</v>
+        <v>7430</v>
+      </c>
+      <c r="D188" s="31">
+        <f t="shared" si="4"/>
+        <v>222974300</v>
+      </c>
+      <c r="E188" s="32">
+        <f t="shared" si="5"/>
+        <v>900600100</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B189" s="2">
-        <v>32950</v>
+        <v>39170</v>
       </c>
       <c r="C189">
-        <v>4269</v>
-      </c>
-      <c r="P189" s="2">
-        <v>4377441.3899999997</v>
+        <v>4966</v>
+      </c>
+      <c r="D189" s="31">
+        <f t="shared" si="4"/>
+        <v>194518220</v>
+      </c>
+      <c r="E189" s="32">
+        <f t="shared" si="5"/>
+        <v>1534288900</v>
+      </c>
+      <c r="P189" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B190" s="2">
-        <v>3146.7799999999997</v>
+        <v>32950</v>
       </c>
       <c r="C190">
-        <v>885</v>
+        <v>4269</v>
+      </c>
+      <c r="D190" s="31">
+        <f t="shared" si="4"/>
+        <v>140663550</v>
+      </c>
+      <c r="E190" s="32">
+        <f t="shared" si="5"/>
+        <v>1085702500</v>
+      </c>
+      <c r="P190" s="2">
+        <v>4377441.3899999997</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B191" s="2">
-        <v>0</v>
+        <v>3146.7799999999997</v>
       </c>
       <c r="C191">
-        <v>138</v>
+        <v>885</v>
+      </c>
+      <c r="D191" s="31">
+        <f t="shared" si="4"/>
+        <v>2784900.3</v>
+      </c>
+      <c r="E191" s="32">
+        <f t="shared" si="5"/>
+        <v>9902224.3683999982</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>138</v>
+      </c>
+      <c r="D192" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E192" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B193" s="2">
         <v>1603.5700000000002</v>
       </c>
-      <c r="C192">
+      <c r="C193">
         <v>81</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="D193" s="31">
+        <f t="shared" si="4"/>
+        <v>129889.17000000001</v>
+      </c>
+      <c r="E193" s="32">
+        <f t="shared" si="5"/>
+        <v>2571436.7449000007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B194" s="2">
         <v>31277.360000000001</v>
       </c>
-      <c r="C193">
+      <c r="C194">
         <v>8766</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
+      <c r="D194" s="31">
+        <f t="shared" si="4"/>
+        <v>274177337.75999999</v>
+      </c>
+      <c r="E194" s="32">
+        <f t="shared" si="5"/>
+        <v>978273248.56959999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B195" s="2">
         <v>40445</v>
       </c>
-      <c r="C194">
+      <c r="C195">
         <v>8507</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
+      <c r="D195" s="31">
+        <f t="shared" si="4"/>
+        <v>344065615</v>
+      </c>
+      <c r="E195" s="32">
+        <f t="shared" si="5"/>
+        <v>1635798025</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B196" s="2">
         <v>14160.8</v>
       </c>
-      <c r="C195">
+      <c r="C196">
         <v>620</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
+      <c r="D196" s="31">
+        <f t="shared" ref="D196:D208" si="6">B196*C196</f>
+        <v>8779696</v>
+      </c>
+      <c r="E196" s="32">
+        <f t="shared" ref="E196:E208" si="7">B196^2</f>
+        <v>200528256.63999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B197" s="2">
         <v>3407.5</v>
       </c>
-      <c r="C196">
+      <c r="C197">
         <v>518</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
+      <c r="D197" s="31">
+        <f t="shared" si="6"/>
+        <v>1765085</v>
+      </c>
+      <c r="E197" s="32">
+        <f t="shared" si="7"/>
+        <v>11611056.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B198" s="2">
         <v>1356</v>
       </c>
-      <c r="C197">
+      <c r="C198">
         <v>313</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
+      <c r="D198" s="31">
+        <f t="shared" si="6"/>
+        <v>424428</v>
+      </c>
+      <c r="E198" s="32">
+        <f t="shared" si="7"/>
+        <v>1838736</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="2">
-        <v>0</v>
-      </c>
-      <c r="C198">
+      <c r="B199" s="2">
+        <v>0</v>
+      </c>
+      <c r="C199">
         <v>262</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
+      <c r="D199" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E199" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B200" s="2">
         <v>109.08</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
+      <c r="D200" s="31">
+        <f t="shared" si="6"/>
+        <v>21597.84</v>
+      </c>
+      <c r="E200" s="32">
+        <f t="shared" si="7"/>
+        <v>11898.446399999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B201" s="2">
         <v>2900</v>
       </c>
-      <c r="C200">
+      <c r="C201">
         <v>143</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="D201" s="31">
+        <f t="shared" si="6"/>
+        <v>414700</v>
+      </c>
+      <c r="E201" s="32">
+        <f t="shared" si="7"/>
+        <v>8410000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B202" s="2">
         <v>29192.78</v>
       </c>
-      <c r="C201">
+      <c r="C202">
         <v>11177</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
+      <c r="D202" s="31">
+        <f t="shared" si="6"/>
+        <v>326287702.06</v>
+      </c>
+      <c r="E202" s="32">
+        <f t="shared" si="7"/>
+        <v>852218404.12839997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B203" s="2">
         <v>8267.7799999999988</v>
       </c>
-      <c r="C202">
+      <c r="C203">
         <v>1945</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
+      <c r="D203" s="31">
+        <f t="shared" si="6"/>
+        <v>16080832.099999998</v>
+      </c>
+      <c r="E203" s="32">
+        <f t="shared" si="7"/>
+        <v>68356186.128399983</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
         <v>212</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B204" s="2">
         <v>3450</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <v>1468</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
+      <c r="D204" s="31">
+        <f t="shared" si="6"/>
+        <v>5064600</v>
+      </c>
+      <c r="E204" s="32">
+        <f t="shared" si="7"/>
+        <v>11902500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
         <v>213</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B205" s="2">
         <v>3877.33</v>
       </c>
-      <c r="C204">
+      <c r="C205">
         <v>1412</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
+      <c r="D205" s="31">
+        <f t="shared" si="6"/>
+        <v>5474789.96</v>
+      </c>
+      <c r="E205" s="32">
+        <f t="shared" si="7"/>
+        <v>15033687.9289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
         <v>214</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B206" s="2">
         <v>2000</v>
       </c>
-      <c r="C205">
+      <c r="C206">
         <v>1065</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
+      <c r="D206" s="31">
+        <f t="shared" si="6"/>
+        <v>2130000</v>
+      </c>
+      <c r="E206" s="32">
+        <f t="shared" si="7"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
         <v>215</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B207" s="2">
         <v>2300</v>
       </c>
-      <c r="C206">
+      <c r="C207">
         <v>505</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="D207" s="31">
+        <f t="shared" si="6"/>
+        <v>1161500</v>
+      </c>
+      <c r="E207" s="32">
+        <f t="shared" si="7"/>
+        <v>5290000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
         <v>216</v>
       </c>
-      <c r="B207" s="2">
-        <v>0</v>
-      </c>
-      <c r="C207">
+      <c r="B208" s="2">
+        <v>0</v>
+      </c>
+      <c r="C208">
         <v>93</v>
+      </c>
+      <c r="D208" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E208" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="2">
+        <f>SUM(B3:B208)</f>
+        <v>3240494.9499999988</v>
+      </c>
+      <c r="C209" s="2">
+        <f t="shared" ref="C209:E209" si="8">SUM(C3:C208)</f>
+        <v>560362</v>
+      </c>
+      <c r="D209" s="2">
+        <f t="shared" si="8"/>
+        <v>18804396554.529991</v>
+      </c>
+      <c r="E209" s="2">
+        <f t="shared" si="8"/>
+        <v>128895528615.56749</v>
       </c>
     </row>
   </sheetData>
